--- a/outputs/extension1_3.xlsx
+++ b/outputs/extension1_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantnu\Desktop\COMP6202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantnu\Desktop\COMP6202\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5980DBBF-CF15-4BF5-ACB1-48E76DC61CA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3834100D-A424-4024-80FE-EF04B0CB17E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>00000001L</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Cbase</t>
+  </si>
+  <si>
+    <t>Halved</t>
+  </si>
+  <si>
+    <t>Doubled</t>
   </si>
 </sst>
 </file>
@@ -637,37 +643,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -678,11 +654,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output2!$A$1</c:f>
+              <c:f>output2!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>00000001L</c:v>
+                  <c:v>Halved</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -701,7 +677,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output2!$A$2:$A$52</c:f>
+              <c:f>output2!$Q$2:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -709,154 +685,154 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>553</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>872</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1177</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1462</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1727</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1978</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2210</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2420</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2618</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2795</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2961</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3111</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3244</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3359</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3461</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3550</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3624</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3686</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3742</c:v>
+                  <c:v>931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3789</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3825</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3857</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3885</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3907</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3925</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3942</c:v>
+                  <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3954</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3963</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3972</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3980</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3984</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3988</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3992</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3996</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4000</c:v>
+                  <c:v>1382</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4000</c:v>
+                  <c:v>1415</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4000</c:v>
+                  <c:v>1444</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4000</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4000</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4000</c:v>
+                  <c:v>1556</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4000</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4000</c:v>
+                  <c:v>1612</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4000</c:v>
+                  <c:v>1643</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4000</c:v>
+                  <c:v>1669</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4000</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4000</c:v>
+                  <c:v>1721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4000</c:v>
+                  <c:v>1751</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4000</c:v>
+                  <c:v>1781</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4000</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,7 +840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60D2-45F2-BC41-D8B4A5A519E6}"/>
+              <c16:uniqueId val="{00000000-2275-4435-8BC3-2C86A567703C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -873,11 +849,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>output2!$B$1</c:f>
+              <c:f>output2!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>00000001S</c:v>
+                  <c:v>Doubled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -896,7 +872,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output2!$B$2:$B$52</c:f>
+              <c:f>output2!$R$2:$R$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -904,154 +880,154 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>342</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>520</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>578</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>1727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>615</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>610</c:v>
+                  <c:v>2210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>591</c:v>
+                  <c:v>2420</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>559</c:v>
+                  <c:v>2618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>523</c:v>
+                  <c:v>2795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>480</c:v>
+                  <c:v>2961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>432</c:v>
+                  <c:v>3111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>387</c:v>
+                  <c:v>3244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>343</c:v>
+                  <c:v>3359</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301</c:v>
+                  <c:v>3461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>260</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>226</c:v>
+                  <c:v>3624</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>194</c:v>
+                  <c:v>3686</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165</c:v>
+                  <c:v>3742</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139</c:v>
+                  <c:v>3789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118</c:v>
+                  <c:v>3825</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98</c:v>
+                  <c:v>3857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81</c:v>
+                  <c:v>3885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67</c:v>
+                  <c:v>3907</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>3925</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44</c:v>
+                  <c:v>3942</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35</c:v>
+                  <c:v>3954</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>3963</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>3972</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>3980</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13</c:v>
+                  <c:v>3984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>3992</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>3996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,2761 +1035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00000011L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$C$2:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00000011S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$D$2:$D$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00000111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$E$2:$E$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00000111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$F$2:$F$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00001111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$G$2:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00001111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$H$2:$H$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00011111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$I$2:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00011111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$J$2:$J$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00111111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$K$2:$K$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00111111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$L$2:$L$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>01111111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$M$2:$M$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>01111111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$N$2:$N$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11111111L</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$O$2:$O$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-60D2-45F2-BC41-D8B4A5A519E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>output2!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11111111S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>output2!$P$2:$P$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-60D2-45F2-BC41-D8B4A5A519E6}"/>
+              <c16:uniqueId val="{00000001-2275-4435-8BC3-2C86A567703C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3826,16 +1048,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429804736"/>
-        <c:axId val="429815232"/>
+        <c:axId val="472474192"/>
+        <c:axId val="472480752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429804736"/>
+        <c:axId val="472474192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3872,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429815232"/>
+        <c:crossAx val="472480752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3880,26 +1157,67 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429815232"/>
+        <c:axId val="472480752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Global Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3931,14 +1249,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429804736"/>
+        <c:crossAx val="472474192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4578,23 +1898,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BAFF90-8222-4B72-9E54-E9F3EBD0751B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C470BC-2BA8-4F5D-AA81-758417C78767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4912,15 +2232,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4969,20 +2292,26 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
       <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>250</v>
       </c>
@@ -5031,20 +2360,26 @@
       <c r="P2">
         <v>250</v>
       </c>
+      <c r="Q2">
+        <v>250</v>
+      </c>
       <c r="R2">
+        <v>250</v>
+      </c>
+      <c r="V2">
         <v>0.04</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>0.4</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>553</v>
       </c>
@@ -5093,8 +2428,14 @@
       <c r="P3">
         <v>79</v>
       </c>
+      <c r="Q3">
+        <v>289</v>
+      </c>
+      <c r="R3">
+        <v>553</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>872</v>
       </c>
@@ -5143,8 +2484,14 @@
       <c r="P4">
         <v>17</v>
       </c>
+      <c r="Q4">
+        <v>326</v>
+      </c>
+      <c r="R4">
+        <v>872</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1177</v>
       </c>
@@ -5193,8 +2540,14 @@
       <c r="P5">
         <v>3</v>
       </c>
+      <c r="Q5">
+        <v>365</v>
+      </c>
+      <c r="R5">
+        <v>1177</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1462</v>
       </c>
@@ -5243,8 +2596,14 @@
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6">
+        <v>404</v>
+      </c>
+      <c r="R6">
+        <v>1462</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1727</v>
       </c>
@@ -5293,8 +2652,14 @@
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7">
+        <v>446</v>
+      </c>
+      <c r="R7">
+        <v>1727</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1978</v>
       </c>
@@ -5343,8 +2708,14 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>488</v>
+      </c>
+      <c r="R8">
+        <v>1978</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2210</v>
       </c>
@@ -5393,8 +2764,14 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>529</v>
+      </c>
+      <c r="R9">
+        <v>2210</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2420</v>
       </c>
@@ -5443,8 +2820,14 @@
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10">
+        <v>562</v>
+      </c>
+      <c r="R10">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2618</v>
       </c>
@@ -5493,8 +2876,14 @@
       <c r="P11">
         <v>0</v>
       </c>
+      <c r="Q11">
+        <v>596</v>
+      </c>
+      <c r="R11">
+        <v>2618</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2795</v>
       </c>
@@ -5543,8 +2932,14 @@
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>633</v>
+      </c>
+      <c r="R12">
+        <v>2795</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2961</v>
       </c>
@@ -5593,8 +2988,14 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>669</v>
+      </c>
+      <c r="R13">
+        <v>2961</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3111</v>
       </c>
@@ -5643,8 +3044,14 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14">
+        <v>706</v>
+      </c>
+      <c r="R14">
+        <v>3111</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3244</v>
       </c>
@@ -5693,8 +3100,14 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>739</v>
+      </c>
+      <c r="R15">
+        <v>3244</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3359</v>
       </c>
@@ -5743,8 +3156,14 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>770</v>
+      </c>
+      <c r="R16">
+        <v>3359</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3461</v>
       </c>
@@ -5793,8 +3212,14 @@
       <c r="P17">
         <v>0</v>
       </c>
+      <c r="Q17">
+        <v>802</v>
+      </c>
+      <c r="R17">
+        <v>3461</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3550</v>
       </c>
@@ -5843,8 +3268,14 @@
       <c r="P18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>835</v>
+      </c>
+      <c r="R18">
+        <v>3550</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3624</v>
       </c>
@@ -5893,8 +3324,14 @@
       <c r="P19">
         <v>0</v>
       </c>
+      <c r="Q19">
+        <v>865</v>
+      </c>
+      <c r="R19">
+        <v>3624</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3686</v>
       </c>
@@ -5943,8 +3380,14 @@
       <c r="P20">
         <v>0</v>
       </c>
+      <c r="Q20">
+        <v>900</v>
+      </c>
+      <c r="R20">
+        <v>3686</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3742</v>
       </c>
@@ -5993,8 +3436,14 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>931</v>
+      </c>
+      <c r="R21">
+        <v>3742</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3789</v>
       </c>
@@ -6043,8 +3492,14 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>962</v>
+      </c>
+      <c r="R22">
+        <v>3789</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3825</v>
       </c>
@@ -6093,8 +3548,14 @@
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>991</v>
+      </c>
+      <c r="R23">
+        <v>3825</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3857</v>
       </c>
@@ -6143,8 +3604,14 @@
       <c r="P24">
         <v>0</v>
       </c>
+      <c r="Q24">
+        <v>1024</v>
+      </c>
+      <c r="R24">
+        <v>3857</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3885</v>
       </c>
@@ -6193,8 +3660,14 @@
       <c r="P25">
         <v>0</v>
       </c>
+      <c r="Q25">
+        <v>1054</v>
+      </c>
+      <c r="R25">
+        <v>3885</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3907</v>
       </c>
@@ -6243,8 +3716,14 @@
       <c r="P26">
         <v>0</v>
       </c>
+      <c r="Q26">
+        <v>1086</v>
+      </c>
+      <c r="R26">
+        <v>3907</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3925</v>
       </c>
@@ -6293,8 +3772,14 @@
       <c r="P27">
         <v>0</v>
       </c>
+      <c r="Q27">
+        <v>1116</v>
+      </c>
+      <c r="R27">
+        <v>3925</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3942</v>
       </c>
@@ -6343,8 +3828,14 @@
       <c r="P28">
         <v>0</v>
       </c>
+      <c r="Q28">
+        <v>1144</v>
+      </c>
+      <c r="R28">
+        <v>3942</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3954</v>
       </c>
@@ -6393,8 +3884,14 @@
       <c r="P29">
         <v>0</v>
       </c>
+      <c r="Q29">
+        <v>1172</v>
+      </c>
+      <c r="R29">
+        <v>3954</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3963</v>
       </c>
@@ -6443,8 +3940,14 @@
       <c r="P30">
         <v>0</v>
       </c>
+      <c r="Q30">
+        <v>1202</v>
+      </c>
+      <c r="R30">
+        <v>3963</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3972</v>
       </c>
@@ -6493,8 +3996,14 @@
       <c r="P31">
         <v>0</v>
       </c>
+      <c r="Q31">
+        <v>1229</v>
+      </c>
+      <c r="R31">
+        <v>3972</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3980</v>
       </c>
@@ -6543,8 +4052,14 @@
       <c r="P32">
         <v>0</v>
       </c>
+      <c r="Q32">
+        <v>1256</v>
+      </c>
+      <c r="R32">
+        <v>3980</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3984</v>
       </c>
@@ -6593,8 +4108,14 @@
       <c r="P33">
         <v>0</v>
       </c>
+      <c r="Q33">
+        <v>1277</v>
+      </c>
+      <c r="R33">
+        <v>3984</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3988</v>
       </c>
@@ -6643,8 +4164,14 @@
       <c r="P34">
         <v>0</v>
       </c>
+      <c r="Q34">
+        <v>1306</v>
+      </c>
+      <c r="R34">
+        <v>3988</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3992</v>
       </c>
@@ -6693,8 +4220,14 @@
       <c r="P35">
         <v>0</v>
       </c>
+      <c r="Q35">
+        <v>1333</v>
+      </c>
+      <c r="R35">
+        <v>3992</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3996</v>
       </c>
@@ -6743,8 +4276,14 @@
       <c r="P36">
         <v>0</v>
       </c>
+      <c r="Q36">
+        <v>1359</v>
+      </c>
+      <c r="R36">
+        <v>3996</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4000</v>
       </c>
@@ -6793,8 +4332,14 @@
       <c r="P37">
         <v>0</v>
       </c>
+      <c r="Q37">
+        <v>1382</v>
+      </c>
+      <c r="R37">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4000</v>
       </c>
@@ -6843,8 +4388,14 @@
       <c r="P38">
         <v>0</v>
       </c>
+      <c r="Q38">
+        <v>1415</v>
+      </c>
+      <c r="R38">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4000</v>
       </c>
@@ -6893,8 +4444,14 @@
       <c r="P39">
         <v>0</v>
       </c>
+      <c r="Q39">
+        <v>1444</v>
+      </c>
+      <c r="R39">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -6943,8 +4500,14 @@
       <c r="P40">
         <v>0</v>
       </c>
+      <c r="Q40">
+        <v>1475</v>
+      </c>
+      <c r="R40">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -6993,8 +4556,14 @@
       <c r="P41">
         <v>0</v>
       </c>
+      <c r="Q41">
+        <v>1502</v>
+      </c>
+      <c r="R41">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -7043,8 +4612,14 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>1528</v>
+      </c>
+      <c r="R42">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -7093,8 +4668,14 @@
       <c r="P43">
         <v>0</v>
       </c>
+      <c r="Q43">
+        <v>1556</v>
+      </c>
+      <c r="R43">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -7143,8 +4724,14 @@
       <c r="P44">
         <v>0</v>
       </c>
+      <c r="Q44">
+        <v>1584</v>
+      </c>
+      <c r="R44">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -7193,8 +4780,14 @@
       <c r="P45">
         <v>0</v>
       </c>
+      <c r="Q45">
+        <v>1612</v>
+      </c>
+      <c r="R45">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4000</v>
       </c>
@@ -7243,8 +4836,14 @@
       <c r="P46">
         <v>0</v>
       </c>
+      <c r="Q46">
+        <v>1643</v>
+      </c>
+      <c r="R46">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4000</v>
       </c>
@@ -7293,8 +4892,14 @@
       <c r="P47">
         <v>0</v>
       </c>
+      <c r="Q47">
+        <v>1669</v>
+      </c>
+      <c r="R47">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4000</v>
       </c>
@@ -7343,8 +4948,14 @@
       <c r="P48">
         <v>0</v>
       </c>
+      <c r="Q48">
+        <v>1695</v>
+      </c>
+      <c r="R48">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4000</v>
       </c>
@@ -7393,8 +5004,14 @@
       <c r="P49">
         <v>0</v>
       </c>
+      <c r="Q49">
+        <v>1721</v>
+      </c>
+      <c r="R49">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4000</v>
       </c>
@@ -7443,8 +5060,14 @@
       <c r="P50">
         <v>0</v>
       </c>
+      <c r="Q50">
+        <v>1751</v>
+      </c>
+      <c r="R50">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4000</v>
       </c>
@@ -7493,8 +5116,14 @@
       <c r="P51">
         <v>0</v>
       </c>
+      <c r="Q51">
+        <v>1781</v>
+      </c>
+      <c r="R51">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4000</v>
       </c>
@@ -7542,6 +5171,12 @@
       </c>
       <c r="P52">
         <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1811</v>
+      </c>
+      <c r="R52">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
